--- a/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
+++ b/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
@@ -12,84 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
+    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2022</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
   </si>
   <si>
-    <t xml:space="preserve">MICH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QROO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAL</t>
+    <t xml:space="preserve">DGO</t>
   </si>
 </sst>
 </file>
@@ -434,7 +368,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.18</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="3">
@@ -442,183 +376,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-2.87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-2.75</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.66</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-2.45</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-2.37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-2.03</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-1.99</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-1.95</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
-        <v>-1.63</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-1.46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-1.42</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-1.32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="n">
-        <v>-1.16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-0.94</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.86</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.55</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.33</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.28</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.27</v>
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
+++ b/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DGO</t>
+    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2023</t>
   </si>
 </sst>
 </file>
@@ -363,22 +357,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-0.54</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.41</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
+++ b/03_ips_clean/09_data_web/04_02_entidades_perdieron.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Entidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2023</t>
+    <t xml:space="preserve">Diferencia en puntuación entre 2020 y 2024</t>
   </si>
 </sst>
 </file>
